--- a/0930/predictions_poly_vs_rf2.xlsx
+++ b/0930/predictions_poly_vs_rf2.xlsx
@@ -468,13 +468,13 @@
         <v>0.5</v>
       </c>
       <c r="C2" t="n">
-        <v>1.227498371441332</v>
+        <v>1.215516663750888</v>
       </c>
       <c r="D2" t="n">
         <v>45</v>
       </c>
       <c r="E2" t="n">
-        <v>1.348257165028082</v>
+        <v>1.376231049093285</v>
       </c>
     </row>
     <row r="3">
@@ -485,13 +485,13 @@
         <v>1.5</v>
       </c>
       <c r="C3" t="n">
-        <v>1.356953597057137</v>
+        <v>1.401515161711004</v>
       </c>
       <c r="D3" t="n">
         <v>135</v>
       </c>
       <c r="E3" t="n">
-        <v>1.561284412010711</v>
+        <v>1.57259758680332</v>
       </c>
     </row>
     <row r="4">
@@ -502,13 +502,13 @@
         <v>2.5</v>
       </c>
       <c r="C4" t="n">
-        <v>1.474860960797426</v>
+        <v>1.550001883804148</v>
       </c>
       <c r="D4" t="n">
         <v>225</v>
       </c>
       <c r="E4" t="n">
-        <v>1.653012488014024</v>
+        <v>1.662708550114554</v>
       </c>
     </row>
     <row r="5">
@@ -519,13 +519,13 @@
         <v>3.5</v>
       </c>
       <c r="C5" t="n">
-        <v>1.58075596089122</v>
+        <v>1.664730042132333</v>
       </c>
       <c r="D5" t="n">
         <v>315</v>
       </c>
       <c r="E5" t="n">
-        <v>1.689775740305099</v>
+        <v>1.699870310998905</v>
       </c>
     </row>
     <row r="6">
@@ -536,13 +536,13 @@
         <v>4.5</v>
       </c>
       <c r="C6" t="n">
-        <v>1.674174095567542</v>
+        <v>1.749452848797573</v>
       </c>
       <c r="D6" t="n">
         <v>405</v>
       </c>
       <c r="E6" t="n">
-        <v>1.690003364561574</v>
+        <v>1.694690878757704</v>
       </c>
     </row>
     <row r="7">
@@ -553,13 +553,13 @@
         <v>5.5</v>
       </c>
       <c r="C7" t="n">
-        <v>1.754650863055414</v>
+        <v>1.807923515901881</v>
       </c>
       <c r="D7" t="n">
         <v>495</v>
       </c>
       <c r="E7" t="n">
-        <v>1.702180301257962</v>
+        <v>1.703501256638805</v>
       </c>
     </row>
     <row r="8">
@@ -570,13 +570,13 @@
         <v>6.5</v>
       </c>
       <c r="C8" t="n">
-        <v>1.82172176158386</v>
+        <v>1.843895255547275</v>
       </c>
       <c r="D8" t="n">
         <v>585</v>
       </c>
       <c r="E8" t="n">
-        <v>1.751596673621749</v>
+        <v>1.757490833070966</v>
       </c>
     </row>
     <row r="9">
@@ -587,13 +587,13 @@
         <v>7.5</v>
       </c>
       <c r="C9" t="n">
-        <v>1.874922289381901</v>
+        <v>1.861121279835767</v>
       </c>
       <c r="D9" t="n">
         <v>675</v>
       </c>
       <c r="E9" t="n">
-        <v>1.746966350436401</v>
+        <v>1.75929149365974</v>
       </c>
     </row>
     <row r="10">
@@ -604,13 +604,13 @@
         <v>8.5</v>
       </c>
       <c r="C10" t="n">
-        <v>1.913787944678562</v>
+        <v>1.863354800869371</v>
       </c>
       <c r="D10" t="n">
         <v>765</v>
       </c>
       <c r="E10" t="n">
-        <v>1.7650498874202</v>
+        <v>1.769068975313187</v>
       </c>
     </row>
     <row r="11">
@@ -621,13 +621,13 @@
         <v>9.5</v>
       </c>
       <c r="C11" t="n">
-        <v>1.937854225702862</v>
+        <v>1.854349030750102</v>
       </c>
       <c r="D11" t="n">
         <v>855</v>
       </c>
       <c r="E11" t="n">
-        <v>1.768822248235108</v>
+        <v>1.769783793171829</v>
       </c>
     </row>
     <row r="12">
@@ -638,13 +638,13 @@
         <v>10.5</v>
       </c>
       <c r="C12" t="n">
-        <v>1.946656630683828</v>
+        <v>1.837857181579974</v>
       </c>
       <c r="D12" t="n">
         <v>945</v>
       </c>
       <c r="E12" t="n">
-        <v>1.762688573748081</v>
+        <v>1.761429392548061</v>
       </c>
     </row>
     <row r="13">
@@ -655,13 +655,13 @@
         <v>11.5</v>
       </c>
       <c r="C13" t="n">
-        <v>1.939730657850479</v>
+        <v>1.817632465461002</v>
       </c>
       <c r="D13" t="n">
         <v>1035</v>
       </c>
       <c r="E13" t="n">
-        <v>1.76142639913305</v>
+        <v>1.757473727425799</v>
       </c>
     </row>
     <row r="14">
@@ -672,13 +672,13 @@
         <v>12.5</v>
       </c>
       <c r="C14" t="n">
-        <v>1.916611805431839</v>
+        <v>1.797428094495199</v>
       </c>
       <c r="D14" t="n">
         <v>1125</v>
       </c>
       <c r="E14" t="n">
-        <v>1.749914625340851</v>
+        <v>1.751764972210009</v>
       </c>
     </row>
     <row r="15">
@@ -689,13 +689,13 @@
         <v>13.5</v>
       </c>
       <c r="C15" t="n">
-        <v>1.87683557165693</v>
+        <v>1.78099728078458</v>
       </c>
       <c r="D15" t="n">
         <v>1215</v>
       </c>
       <c r="E15" t="n">
-        <v>1.74860722593954</v>
+        <v>1.754431532562214</v>
       </c>
     </row>
     <row r="16">
@@ -706,13 +706,13 @@
         <v>14.5</v>
       </c>
       <c r="C16" t="n">
-        <v>1.819937454754776</v>
+        <v>1.772093236431159</v>
       </c>
       <c r="D16" t="n">
         <v>1305</v>
       </c>
       <c r="E16" t="n">
-        <v>1.725059903352016</v>
+        <v>1.743080162846784</v>
       </c>
     </row>
     <row r="17">
@@ -723,13 +723,13 @@
         <v>15.5</v>
       </c>
       <c r="C17" t="n">
-        <v>1.745452952954398</v>
+        <v>1.774469173536952</v>
       </c>
       <c r="D17" t="n">
         <v>1395</v>
       </c>
       <c r="E17" t="n">
-        <v>1.725059903352016</v>
+        <v>1.734367951811049</v>
       </c>
     </row>
     <row r="18">
@@ -740,13 +740,13 @@
         <v>0.5</v>
       </c>
       <c r="C18" t="n">
-        <v>1.336003056569666</v>
+        <v>1.326178961144477</v>
       </c>
       <c r="D18" t="n">
         <v>40</v>
       </c>
       <c r="E18" t="n">
-        <v>1.250064747300104</v>
+        <v>1.278375099859788</v>
       </c>
     </row>
     <row r="19">
@@ -757,13 +757,13 @@
         <v>1.5</v>
       </c>
       <c r="C19" t="n">
-        <v>1.45367212158046</v>
+        <v>1.495303523694878</v>
       </c>
       <c r="D19" t="n">
         <v>120</v>
       </c>
       <c r="E19" t="n">
-        <v>1.552851854667033</v>
+        <v>1.588881028941799</v>
       </c>
     </row>
     <row r="20">
@@ -774,13 +774,13 @@
         <v>2.5</v>
       </c>
       <c r="C20" t="n">
-        <v>1.561366940165951</v>
+        <v>1.628897924049789</v>
       </c>
       <c r="D20" t="n">
         <v>200</v>
       </c>
       <c r="E20" t="n">
-        <v>1.807530358655258</v>
+        <v>1.695893018001815</v>
       </c>
     </row>
     <row r="21">
@@ -791,13 +791,13 @@
         <v>3.5</v>
       </c>
       <c r="C21" t="n">
-        <v>1.658623010555161</v>
+        <v>1.730715374311226</v>
       </c>
       <c r="D21" t="n">
         <v>280</v>
       </c>
       <c r="E21" t="n">
-        <v>1.820900911529584</v>
+        <v>1.763697477986143</v>
       </c>
     </row>
     <row r="22">
@@ -808,13 +808,13 @@
         <v>4.5</v>
       </c>
       <c r="C22" t="n">
-        <v>1.744975830977112</v>
+        <v>1.804509086581202</v>
       </c>
       <c r="D22" t="n">
         <v>360</v>
       </c>
       <c r="E22" t="n">
-        <v>1.829549023311899</v>
+        <v>1.754808379863738</v>
       </c>
     </row>
     <row r="23">
@@ -825,13 +825,13 @@
         <v>5.5</v>
       </c>
       <c r="C23" t="n">
-        <v>1.819960899660828</v>
+        <v>1.854032272961732</v>
       </c>
       <c r="D23" t="n">
         <v>440</v>
       </c>
       <c r="E23" t="n">
-        <v>1.856460278061335</v>
+        <v>1.770086907678105</v>
       </c>
     </row>
     <row r="24">
@@ -842,13 +842,13 @@
         <v>6.5</v>
       </c>
       <c r="C24" t="n">
-        <v>1.88311371483533</v>
+        <v>1.88303814555483</v>
       </c>
       <c r="D24" t="n">
         <v>520</v>
       </c>
       <c r="E24" t="n">
-        <v>1.904688185066928</v>
+        <v>1.844404139879796</v>
       </c>
     </row>
     <row r="25">
@@ -859,13 +859,13 @@
         <v>7.5</v>
       </c>
       <c r="C25" t="n">
-        <v>1.933969774729642</v>
+        <v>1.89527991646251</v>
       </c>
       <c r="D25" t="n">
         <v>600</v>
       </c>
       <c r="E25" t="n">
-        <v>1.928273571145726</v>
+        <v>1.859062767910292</v>
       </c>
     </row>
     <row r="26">
@@ -876,13 +876,13 @@
         <v>8.5</v>
       </c>
       <c r="C26" t="n">
-        <v>1.972064577572786</v>
+        <v>1.894510797786787</v>
       </c>
       <c r="D26" t="n">
         <v>680</v>
       </c>
       <c r="E26" t="n">
-        <v>1.938958099051445</v>
+        <v>1.86633142732427</v>
       </c>
     </row>
     <row r="27">
@@ -893,13 +893,13 @@
         <v>9.5</v>
       </c>
       <c r="C27" t="n">
-        <v>1.996933621593785</v>
+        <v>1.884484001629674</v>
       </c>
       <c r="D27" t="n">
         <v>760</v>
       </c>
       <c r="E27" t="n">
-        <v>1.961902972246398</v>
+        <v>1.866768315030147</v>
       </c>
     </row>
     <row r="28">
@@ -910,13 +910,13 @@
         <v>10.5</v>
       </c>
       <c r="C28" t="n">
-        <v>2.008112405021661</v>
+        <v>1.868952740093187</v>
       </c>
       <c r="D28" t="n">
         <v>840</v>
       </c>
       <c r="E28" t="n">
-        <v>1.985340587442819</v>
+        <v>1.85517029934528</v>
       </c>
     </row>
     <row r="29">
@@ -927,13 +927,13 @@
         <v>11.5</v>
       </c>
       <c r="C29" t="n">
-        <v>2.005136426085437</v>
+        <v>1.85167022527934</v>
       </c>
       <c r="D29" t="n">
         <v>920</v>
       </c>
       <c r="E29" t="n">
-        <v>1.992499011856365</v>
+        <v>1.851432777504969</v>
       </c>
     </row>
     <row r="30">
@@ -944,13 +944,13 @@
         <v>12.5</v>
       </c>
       <c r="C30" t="n">
-        <v>1.987541183014135</v>
+        <v>1.836389669290146</v>
       </c>
       <c r="D30" t="n">
         <v>1000</v>
       </c>
       <c r="E30" t="n">
-        <v>2.005703068771102</v>
+        <v>1.858882773558469</v>
       </c>
     </row>
     <row r="31">
@@ -961,13 +961,13 @@
         <v>13.5</v>
       </c>
       <c r="C31" t="n">
-        <v>1.954862174036778</v>
+        <v>1.82686428422762</v>
       </c>
       <c r="D31" t="n">
         <v>1080</v>
       </c>
       <c r="E31" t="n">
-        <v>2.005703068771102</v>
+        <v>1.852624375889536</v>
       </c>
     </row>
     <row r="32">
@@ -978,13 +978,13 @@
         <v>14.5</v>
       </c>
       <c r="C32" t="n">
-        <v>1.906634897382389</v>
+        <v>1.826847282193776</v>
       </c>
       <c r="D32" t="n">
         <v>1160</v>
       </c>
       <c r="E32" t="n">
-        <v>2.006427926239596</v>
+        <v>1.889202545879637</v>
       </c>
     </row>
     <row r="33">
@@ -995,13 +995,13 @@
         <v>15.5</v>
       </c>
       <c r="C33" t="n">
-        <v>1.84239485127999</v>
+        <v>1.840091875290629</v>
       </c>
       <c r="D33" t="n">
         <v>1240</v>
       </c>
       <c r="E33" t="n">
-        <v>2.006427926239596</v>
+        <v>1.891877908108305</v>
       </c>
     </row>
     <row r="34">
@@ -1012,13 +1012,13 @@
         <v>0.5</v>
       </c>
       <c r="C34" t="n">
-        <v>1.318523571438768</v>
+        <v>1.314011210837152</v>
       </c>
       <c r="D34" t="n">
         <v>35</v>
       </c>
       <c r="E34" t="n">
-        <v>1.232898477711972</v>
+        <v>1.211143341679063</v>
       </c>
     </row>
     <row r="35">
@@ -1029,13 +1029,13 @@
         <v>1.5</v>
       </c>
       <c r="C35" t="n">
-        <v>1.423053114738049</v>
+        <v>1.465707888029905</v>
       </c>
       <c r="D35" t="n">
         <v>105</v>
       </c>
       <c r="E35" t="n">
-        <v>1.457888720968937</v>
+        <v>1.500932228505245</v>
       </c>
     </row>
     <row r="36">
@@ -1046,13 +1046,13 @@
         <v>2.5</v>
       </c>
       <c r="C36" t="n">
-        <v>1.519182027062238</v>
+        <v>1.583856016698654</v>
       </c>
       <c r="D36" t="n">
         <v>175</v>
       </c>
       <c r="E36" t="n">
-        <v>1.782885120889588</v>
+        <v>1.818461755291091</v>
       </c>
     </row>
     <row r="37">
@@ -1063,13 +1063,13 @@
         <v>3.5</v>
       </c>
       <c r="C37" t="n">
-        <v>1.606445806640362</v>
+        <v>1.672208808945412</v>
       </c>
       <c r="D37" t="n">
         <v>245</v>
       </c>
       <c r="E37" t="n">
-        <v>1.824415238839387</v>
+        <v>1.816072147518899</v>
       </c>
     </row>
     <row r="38">
@@ -1080,13 +1080,13 @@
         <v>4.5</v>
       </c>
       <c r="C38" t="n">
-        <v>1.684379951701439</v>
+        <v>1.734519476872193</v>
       </c>
       <c r="D38" t="n">
         <v>315</v>
       </c>
       <c r="E38" t="n">
-        <v>1.83529953294897</v>
+        <v>1.840189630151497</v>
       </c>
     </row>
     <row r="39">
@@ -1097,13 +1097,13 @@
         <v>5.5</v>
       </c>
       <c r="C39" t="n">
-        <v>1.752519960474495</v>
+        <v>1.774541232581012</v>
       </c>
       <c r="D39" t="n">
         <v>385</v>
       </c>
       <c r="E39" t="n">
-        <v>1.830028607177697</v>
+        <v>1.836500788974757</v>
       </c>
     </row>
     <row r="40">
@@ -1114,13 +1114,13 @@
         <v>6.5</v>
       </c>
       <c r="C40" t="n">
-        <v>1.810401331188551</v>
+        <v>1.796027288173883</v>
       </c>
       <c r="D40" t="n">
         <v>455</v>
       </c>
       <c r="E40" t="n">
-        <v>1.883472947829482</v>
+        <v>1.907330340021373</v>
       </c>
     </row>
     <row r="41">
@@ -1131,13 +1131,13 @@
         <v>7.5</v>
       </c>
       <c r="C41" t="n">
-        <v>1.85755956207263</v>
+        <v>1.802730855752821</v>
       </c>
       <c r="D41" t="n">
         <v>525</v>
       </c>
       <c r="E41" t="n">
-        <v>1.905868309804061</v>
+        <v>1.926996085614492</v>
       </c>
     </row>
     <row r="42">
@@ -1148,13 +1148,13 @@
         <v>8.5</v>
       </c>
       <c r="C42" t="n">
-        <v>1.893530151355755</v>
+        <v>1.798405147419839</v>
       </c>
       <c r="D42" t="n">
         <v>595</v>
       </c>
       <c r="E42" t="n">
-        <v>1.94311871352919</v>
+        <v>1.947752426524918</v>
       </c>
     </row>
     <row r="43">
@@ -1165,13 +1165,13 @@
         <v>9.5</v>
       </c>
       <c r="C43" t="n">
-        <v>1.917848597266948</v>
+        <v>1.786803375276952</v>
       </c>
       <c r="D43" t="n">
         <v>665</v>
       </c>
       <c r="E43" t="n">
-        <v>1.939584377328247</v>
+        <v>1.94836210919175</v>
       </c>
     </row>
     <row r="44">
@@ -1182,13 +1182,13 @@
         <v>10.5</v>
       </c>
       <c r="C44" t="n">
-        <v>1.930050398035231</v>
+        <v>1.771678751426174</v>
       </c>
       <c r="D44" t="n">
         <v>735</v>
       </c>
       <c r="E44" t="n">
-        <v>1.981040368241733</v>
+        <v>1.980187353789506</v>
       </c>
     </row>
     <row r="45">
@@ -1199,13 +1199,13 @@
         <v>11.5</v>
       </c>
       <c r="C45" t="n">
-        <v>1.929671051889629</v>
+        <v>1.75678448796952</v>
       </c>
       <c r="D45" t="n">
         <v>805</v>
       </c>
       <c r="E45" t="n">
-        <v>1.981834899150341</v>
+        <v>1.979448407852052</v>
       </c>
     </row>
     <row r="46">
@@ -1216,13 +1216,13 @@
         <v>12.5</v>
       </c>
       <c r="C46" t="n">
-        <v>1.916246057059162</v>
+        <v>1.745873797009003</v>
       </c>
       <c r="D46" t="n">
         <v>875</v>
       </c>
       <c r="E46" t="n">
-        <v>1.997205890080068</v>
+        <v>1.980108737496728</v>
       </c>
     </row>
     <row r="47">
@@ -1233,13 +1233,13 @@
         <v>13.5</v>
       </c>
       <c r="C47" t="n">
-        <v>1.889310911772854</v>
+        <v>1.742699890646639</v>
       </c>
       <c r="D47" t="n">
         <v>945</v>
       </c>
       <c r="E47" t="n">
-        <v>1.999728261626725</v>
+        <v>1.976214607576119</v>
       </c>
     </row>
     <row r="48">
@@ -1250,13 +1250,13 @@
         <v>14.5</v>
       </c>
       <c r="C48" t="n">
-        <v>1.848401114259727</v>
+        <v>1.751015980984441</v>
       </c>
       <c r="D48" t="n">
         <v>1015</v>
       </c>
       <c r="E48" t="n">
-        <v>2.008134929870897</v>
+        <v>1.979803700036617</v>
       </c>
     </row>
     <row r="49">
@@ -1267,13 +1267,13 @@
         <v>15.5</v>
       </c>
       <c r="C49" t="n">
-        <v>1.793052162748803</v>
+        <v>1.774575280124424</v>
       </c>
       <c r="D49" t="n">
         <v>1085</v>
       </c>
       <c r="E49" t="n">
-        <v>2.007735325640906</v>
+        <v>1.977154875555458</v>
       </c>
     </row>
     <row r="50">
@@ -1284,13 +1284,13 @@
         <v>0.5</v>
       </c>
       <c r="C50" t="n">
-        <v>1.214551111934872</v>
+        <v>1.217171349622388</v>
       </c>
       <c r="D50" t="n">
         <v>30</v>
       </c>
       <c r="E50" t="n">
-        <v>0.9724811063433547</v>
+        <v>0.9917561769490043</v>
       </c>
     </row>
     <row r="51">
@@ -1301,13 +1301,13 @@
         <v>1.5</v>
       </c>
       <c r="C51" t="n">
-        <v>1.304587772416135</v>
+        <v>1.350886191509564</v>
       </c>
       <c r="D51" t="n">
         <v>90</v>
       </c>
       <c r="E51" t="n">
-        <v>0.9517759769747874</v>
+        <v>1.004627825383537</v>
       </c>
     </row>
     <row r="52">
@@ -1318,13 +1318,13 @@
         <v>2.5</v>
       </c>
       <c r="C52" t="n">
-        <v>1.387797417372522</v>
+        <v>1.453034098544218</v>
       </c>
       <c r="D52" t="n">
         <v>150</v>
       </c>
       <c r="E52" t="n">
-        <v>1.042954463638382</v>
+        <v>1.021949502889211</v>
       </c>
     </row>
     <row r="53">
@@ -1335,13 +1335,13 @@
         <v>3.5</v>
       </c>
       <c r="C53" t="n">
-        <v>1.463715545033054</v>
+        <v>1.527368282828366</v>
       </c>
       <c r="D53" t="n">
         <v>210</v>
       </c>
       <c r="E53" t="n">
-        <v>1.058346104974422</v>
+        <v>1.021082415709615</v>
       </c>
     </row>
     <row r="54">
@@ -1352,13 +1352,13 @@
         <v>4.5</v>
       </c>
       <c r="C54" t="n">
-        <v>1.531877653626756</v>
+        <v>1.577641956464021</v>
       </c>
       <c r="D54" t="n">
         <v>270</v>
       </c>
       <c r="E54" t="n">
-        <v>1.109422596350019</v>
+        <v>1.067210328956347</v>
       </c>
     </row>
     <row r="55">
@@ -1369,13 +1369,13 @@
         <v>5.5</v>
       </c>
       <c r="C55" t="n">
-        <v>1.591819241382648</v>
+        <v>1.607608331553198</v>
       </c>
       <c r="D55" t="n">
         <v>330</v>
       </c>
       <c r="E55" t="n">
-        <v>1.138568439491123</v>
+        <v>1.116047531192021</v>
       </c>
     </row>
     <row r="56">
@@ -1386,13 +1386,13 @@
         <v>6.5</v>
       </c>
       <c r="C56" t="n">
-        <v>1.643075806529755</v>
+        <v>1.62102062019791</v>
       </c>
       <c r="D56" t="n">
         <v>390</v>
       </c>
       <c r="E56" t="n">
-        <v>1.145276910440089</v>
+        <v>1.135732572332439</v>
       </c>
     </row>
     <row r="57">
@@ -1403,13 +1403,13 @@
         <v>7.5</v>
       </c>
       <c r="C57" t="n">
-        <v>1.685182847297098</v>
+        <v>1.621632034500174</v>
       </c>
       <c r="D57" t="n">
         <v>450</v>
       </c>
       <c r="E57" t="n">
-        <v>1.148931886473226</v>
+        <v>1.143994261050849</v>
       </c>
     </row>
     <row r="58">
@@ -1420,13 +1420,13 @@
         <v>8.5</v>
       </c>
       <c r="C58" t="n">
-        <v>1.717675861913701</v>
+        <v>1.613195786562002</v>
       </c>
       <c r="D58" t="n">
         <v>510</v>
       </c>
       <c r="E58" t="n">
-        <v>1.191213501383056</v>
+        <v>1.153030055132886</v>
       </c>
     </row>
     <row r="59">
@@ -1437,13 +1437,13 @@
         <v>9.5</v>
       </c>
       <c r="C59" t="n">
-        <v>1.740090348608585</v>
+        <v>1.599465088485409</v>
       </c>
       <c r="D59" t="n">
         <v>570</v>
       </c>
       <c r="E59" t="n">
-        <v>1.1998604300315</v>
+        <v>1.192124207820493</v>
       </c>
     </row>
     <row r="60">
@@ -1454,13 +1454,13 @@
         <v>10.5</v>
       </c>
       <c r="C60" t="n">
-        <v>1.751961805610773</v>
+        <v>1.584193152372409</v>
       </c>
       <c r="D60" t="n">
         <v>630</v>
       </c>
       <c r="E60" t="n">
-        <v>1.212812959990865</v>
+        <v>1.216802931385458</v>
       </c>
     </row>
     <row r="61">
@@ -1471,13 +1471,13 @@
         <v>11.5</v>
       </c>
       <c r="C61" t="n">
-        <v>1.752825731149289</v>
+        <v>1.571133190325017</v>
       </c>
       <c r="D61" t="n">
         <v>690</v>
       </c>
       <c r="E61" t="n">
-        <v>1.211638798783157</v>
+        <v>1.218488229553589</v>
       </c>
     </row>
     <row r="62">
@@ -1488,13 +1488,13 @@
         <v>12.5</v>
       </c>
       <c r="C62" t="n">
-        <v>1.742217623453154</v>
+        <v>1.564038414445247</v>
       </c>
       <c r="D62" t="n">
         <v>750</v>
       </c>
       <c r="E62" t="n">
-        <v>1.218401203459331</v>
+        <v>1.224007729921905</v>
       </c>
     </row>
     <row r="63">
@@ -1505,13 +1505,13 @@
         <v>13.5</v>
       </c>
       <c r="C63" t="n">
-        <v>1.719672980751391</v>
+        <v>1.566662036835113</v>
       </c>
       <c r="D63" t="n">
         <v>810</v>
       </c>
       <c r="E63" t="n">
-        <v>1.218401203459331</v>
+        <v>1.223959723848217</v>
       </c>
     </row>
     <row r="64">
@@ -1522,13 +1522,13 @@
         <v>14.5</v>
       </c>
       <c r="C64" t="n">
-        <v>1.684727301273023</v>
+        <v>1.582757269596629</v>
       </c>
       <c r="D64" t="n">
         <v>870</v>
       </c>
       <c r="E64" t="n">
-        <v>1.231477322599337</v>
+        <v>1.216966007134172</v>
       </c>
     </row>
     <row r="65">
@@ -1539,13 +1539,13 @@
         <v>15.5</v>
       </c>
       <c r="C65" t="n">
-        <v>1.636916083247073</v>
+        <v>1.61607732483181</v>
       </c>
       <c r="D65" t="n">
         <v>930</v>
       </c>
       <c r="E65" t="n">
-        <v>1.231429554182803</v>
+        <v>1.216242156487812</v>
       </c>
     </row>
     <row r="66">
@@ -1556,13 +1556,13 @@
         <v>0.5</v>
       </c>
       <c r="C66" t="n">
-        <v>1.063576873944211</v>
+        <v>1.073817314293662</v>
       </c>
       <c r="D66" t="n">
         <v>25</v>
       </c>
       <c r="E66" t="n">
-        <v>0.9920959406539404</v>
+        <v>1.01865711241135</v>
       </c>
     </row>
     <row r="67">
@@ -1573,13 +1573,13 @@
         <v>1.5</v>
       </c>
       <c r="C67" t="n">
-        <v>1.137767290500953</v>
+        <v>1.188996370927328</v>
       </c>
       <c r="D67" t="n">
         <v>75</v>
       </c>
       <c r="E67" t="n">
-        <v>0.9361097213244346</v>
+        <v>0.9848567526713984</v>
       </c>
     </row>
     <row r="68">
@@ -1590,13 +1590,13 @@
         <v>2.5</v>
       </c>
       <c r="C68" t="n">
-        <v>1.206704306983033</v>
+        <v>1.274590106379957</v>
       </c>
       <c r="D68" t="n">
         <v>125</v>
       </c>
       <c r="E68" t="n">
-        <v>0.9795388616162095</v>
+        <v>0.9855117920748523</v>
       </c>
     </row>
     <row r="69">
@@ -1607,13 +1607,13 @@
         <v>3.5</v>
       </c>
       <c r="C69" t="n">
-        <v>1.269923421619472</v>
+        <v>1.334351732753562</v>
       </c>
       <c r="D69" t="n">
         <v>175</v>
       </c>
       <c r="E69" t="n">
-        <v>1.012439373053035</v>
+        <v>0.9932880936050169</v>
       </c>
     </row>
     <row r="70">
@@ -1624,13 +1624,13 @@
         <v>4.5</v>
       </c>
       <c r="C70" t="n">
-        <v>1.326960132639294</v>
+        <v>1.37203446215016</v>
       </c>
       <c r="D70" t="n">
         <v>225</v>
       </c>
       <c r="E70" t="n">
-        <v>1.018255509995408</v>
+        <v>1.004052254749515</v>
       </c>
     </row>
     <row r="71">
@@ -1641,13 +1641,13 @@
         <v>5.5</v>
       </c>
       <c r="C71" t="n">
-        <v>1.37734993827152</v>
+        <v>1.391391506671763</v>
       </c>
       <c r="D71" t="n">
         <v>275</v>
       </c>
       <c r="E71" t="n">
-        <v>1.057749154244017</v>
+        <v>1.039215580638739</v>
       </c>
     </row>
     <row r="72">
@@ -1658,13 +1658,13 @@
         <v>6.5</v>
       </c>
       <c r="C72" t="n">
-        <v>1.420628336745175</v>
+        <v>1.396176078420386</v>
       </c>
       <c r="D72" t="n">
         <v>325</v>
       </c>
       <c r="E72" t="n">
-        <v>1.086809057197933</v>
+        <v>1.091283260991696</v>
       </c>
     </row>
     <row r="73">
@@ -1675,13 +1675,13 @@
         <v>7.5</v>
       </c>
       <c r="C73" t="n">
-        <v>1.456330826289279</v>
+        <v>1.390141389498044</v>
       </c>
       <c r="D73" t="n">
         <v>375</v>
       </c>
       <c r="E73" t="n">
-        <v>1.086709533122259</v>
+        <v>1.102527515200693</v>
       </c>
     </row>
     <row r="74">
@@ -1692,13 +1692,13 @@
         <v>8.5</v>
       </c>
       <c r="C74" t="n">
-        <v>1.483992905132856</v>
+        <v>1.377040652006751</v>
       </c>
       <c r="D74" t="n">
         <v>425</v>
       </c>
       <c r="E74" t="n">
-        <v>1.1054112737476</v>
+        <v>1.108409162452691</v>
       </c>
     </row>
     <row r="75">
@@ -1709,13 +1709,13 @@
         <v>9.5</v>
       </c>
       <c r="C75" t="n">
-        <v>1.503150071504928</v>
+        <v>1.36062707804852</v>
       </c>
       <c r="D75" t="n">
         <v>475</v>
       </c>
       <c r="E75" t="n">
-        <v>1.12793762716765</v>
+        <v>1.110363623625242</v>
       </c>
     </row>
     <row r="76">
@@ -1726,13 +1726,13 @@
         <v>10.5</v>
       </c>
       <c r="C76" t="n">
-        <v>1.513337823634518</v>
+        <v>1.344653879725367</v>
       </c>
       <c r="D76" t="n">
         <v>525</v>
       </c>
       <c r="E76" t="n">
-        <v>1.14201696571945</v>
+        <v>1.147300231589845</v>
       </c>
     </row>
     <row r="77">
@@ -1743,13 +1743,13 @@
         <v>11.5</v>
       </c>
       <c r="C77" t="n">
-        <v>1.514091659750649</v>
+        <v>1.332874269139306</v>
       </c>
       <c r="D77" t="n">
         <v>575</v>
       </c>
       <c r="E77" t="n">
-        <v>1.148713992111713</v>
+        <v>1.164576817738349</v>
       </c>
     </row>
     <row r="78">
@@ -1760,13 +1760,13 @@
         <v>12.5</v>
       </c>
       <c r="C78" t="n">
-        <v>1.504947078082343</v>
+        <v>1.32904145839235</v>
       </c>
       <c r="D78" t="n">
         <v>625</v>
       </c>
       <c r="E78" t="n">
-        <v>1.155679436756715</v>
+        <v>1.180423556269897</v>
       </c>
     </row>
     <row r="79">
@@ -1777,13 +1777,13 @@
         <v>13.5</v>
       </c>
       <c r="C79" t="n">
-        <v>1.485439576858623</v>
+        <v>1.336908659586515</v>
       </c>
       <c r="D79" t="n">
         <v>675</v>
       </c>
       <c r="E79" t="n">
-        <v>1.154356113790029</v>
+        <v>1.182325418964817</v>
       </c>
     </row>
     <row r="80">
@@ -1794,13 +1794,13 @@
         <v>14.5</v>
       </c>
       <c r="C80" t="n">
-        <v>1.455104654308511</v>
+        <v>1.360229084823815</v>
       </c>
       <c r="D80" t="n">
         <v>725</v>
       </c>
       <c r="E80" t="n">
-        <v>1.159364192426517</v>
+        <v>1.18018494748388</v>
       </c>
     </row>
     <row r="81">
@@ -1811,13 +1811,13 @@
         <v>15.5</v>
       </c>
       <c r="C81" t="n">
-        <v>1.413477808661029</v>
+        <v>1.402755946206262</v>
       </c>
       <c r="D81" t="n">
         <v>775</v>
       </c>
       <c r="E81" t="n">
-        <v>1.159364192426517</v>
+        <v>1.180472920898768</v>
       </c>
     </row>
     <row r="82">
@@ -1828,13 +1828,13 @@
         <v>0.5</v>
       </c>
       <c r="C82" t="n">
-        <v>0.905092053353014</v>
+        <v>0.9221070416444476</v>
       </c>
       <c r="D82" t="n">
         <v>20</v>
       </c>
       <c r="E82" t="n">
-        <v>0.950062419055369</v>
+        <v>1.006876311224994</v>
       </c>
     </row>
     <row r="83">
@@ -1845,13 +1845,13 @@
         <v>1.5</v>
       </c>
       <c r="C83" t="n">
-        <v>0.9620828648787331</v>
+        <v>1.018196363076672</v>
       </c>
       <c r="D83" t="n">
         <v>60</v>
       </c>
       <c r="E83" t="n">
-        <v>0.9321197811822894</v>
+        <v>0.972745731112717</v>
       </c>
     </row>
     <row r="84">
@@ -1862,13 +1862,13 @@
         <v>2.5</v>
       </c>
       <c r="C84" t="n">
-        <v>1.015393891780003</v>
+        <v>1.086681976999344</v>
       </c>
       <c r="D84" t="n">
         <v>100</v>
       </c>
       <c r="E84" t="n">
-        <v>0.9332455372088382</v>
+        <v>0.9700429839273245</v>
       </c>
     </row>
     <row r="85">
@@ -1879,13 +1879,13 @@
         <v>3.5</v>
       </c>
       <c r="C85" t="n">
-        <v>1.064560632285846</v>
+        <v>1.131317095514476</v>
       </c>
       <c r="D85" t="n">
         <v>140</v>
       </c>
       <c r="E85" t="n">
-        <v>1.024812340625359</v>
+        <v>0.9853505332352182</v>
       </c>
     </row>
     <row r="86">
@@ -1896,13 +1896,13 @@
         <v>4.5</v>
       </c>
       <c r="C86" t="n">
-        <v>1.109118584625285</v>
+        <v>1.155854930724085</v>
       </c>
       <c r="D86" t="n">
         <v>180</v>
       </c>
       <c r="E86" t="n">
-        <v>1.022074494884679</v>
+        <v>0.9881379675178383</v>
       </c>
     </row>
     <row r="87">
@@ -1913,13 +1913,13 @@
         <v>5.5</v>
       </c>
       <c r="C87" t="n">
-        <v>1.148603247027343</v>
+        <v>1.164048694730183</v>
       </c>
       <c r="D87" t="n">
         <v>220</v>
       </c>
       <c r="E87" t="n">
-        <v>1.027640084843827</v>
+        <v>0.9894702494942614</v>
       </c>
     </row>
     <row r="88">
@@ -1930,13 +1930,13 @@
         <v>6.5</v>
       </c>
       <c r="C88" t="n">
-        <v>1.182550117721041</v>
+        <v>1.159651599634786</v>
       </c>
       <c r="D88" t="n">
         <v>260</v>
       </c>
       <c r="E88" t="n">
-        <v>1.0651315137204</v>
+        <v>1.020582899364857</v>
       </c>
     </row>
     <row r="89">
@@ -1947,13 +1947,13 @@
         <v>7.5</v>
       </c>
       <c r="C89" t="n">
-        <v>1.210494694935403</v>
+        <v>1.146416857539906</v>
       </c>
       <c r="D89" t="n">
         <v>300</v>
       </c>
       <c r="E89" t="n">
-        <v>1.090979413305518</v>
+        <v>1.049903315399226</v>
       </c>
     </row>
     <row r="90">
@@ -1964,13 +1964,13 @@
         <v>8.5</v>
       </c>
       <c r="C90" t="n">
-        <v>1.231972476899452</v>
+        <v>1.12809768054756</v>
       </c>
       <c r="D90" t="n">
         <v>340</v>
       </c>
       <c r="E90" t="n">
-        <v>1.100135230501687</v>
+        <v>1.085243415577461</v>
       </c>
     </row>
     <row r="91">
@@ -1981,13 +1981,13 @@
         <v>9.5</v>
       </c>
       <c r="C91" t="n">
-        <v>1.246518961842209</v>
+        <v>1.108447280759761</v>
       </c>
       <c r="D91" t="n">
         <v>380</v>
       </c>
       <c r="E91" t="n">
-        <v>1.102218968713895</v>
+        <v>1.09504870423072</v>
       </c>
     </row>
     <row r="92">
@@ -1998,13 +1998,13 @@
         <v>10.5</v>
       </c>
       <c r="C92" t="n">
-        <v>1.253669647992698</v>
+        <v>1.091218870278523</v>
       </c>
       <c r="D92" t="n">
         <v>420</v>
       </c>
       <c r="E92" t="n">
-        <v>1.110644469924232</v>
+        <v>1.100388915544298</v>
       </c>
     </row>
     <row r="93">
@@ -2015,13 +2015,13 @@
         <v>11.5</v>
       </c>
       <c r="C93" t="n">
-        <v>1.252960033579941</v>
+        <v>1.080165661205861</v>
       </c>
       <c r="D93" t="n">
         <v>460</v>
       </c>
       <c r="E93" t="n">
-        <v>1.114528249704736</v>
+        <v>1.105395249516974</v>
       </c>
     </row>
     <row r="94">
@@ -2032,13 +2032,13 @@
         <v>12.5</v>
       </c>
       <c r="C94" t="n">
-        <v>1.24392561683296</v>
+        <v>1.07904086564379</v>
       </c>
       <c r="D94" t="n">
         <v>500</v>
       </c>
       <c r="E94" t="n">
-        <v>1.137579942741794</v>
+        <v>1.108248292571368</v>
       </c>
     </row>
     <row r="95">
@@ -2049,13 +2049,13 @@
         <v>13.5</v>
       </c>
       <c r="C95" t="n">
-        <v>1.226101895980779</v>
+        <v>1.091597695694322</v>
       </c>
       <c r="D95" t="n">
         <v>540</v>
       </c>
       <c r="E95" t="n">
-        <v>1.143636164570575</v>
+        <v>1.134435708023367</v>
       </c>
     </row>
     <row r="96">
@@ -2066,13 +2066,13 @@
         <v>14.5</v>
       </c>
       <c r="C96" t="n">
-        <v>1.19902436925242</v>
+        <v>1.121589363459472</v>
       </c>
       <c r="D96" t="n">
         <v>580</v>
       </c>
       <c r="E96" t="n">
-        <v>1.152910560083902</v>
+        <v>1.145352023071856</v>
       </c>
     </row>
     <row r="97">
@@ -2083,13 +2083,13 @@
         <v>15.5</v>
       </c>
       <c r="C97" t="n">
-        <v>1.162228534876906</v>
+        <v>1.172769081041257</v>
       </c>
       <c r="D97" t="n">
         <v>620</v>
       </c>
       <c r="E97" t="n">
-        <v>1.157436929872643</v>
+        <v>1.144923092277586</v>
       </c>
     </row>
     <row r="98">
@@ -2100,13 +2100,13 @@
         <v>0.5</v>
       </c>
       <c r="C98" t="n">
-        <v>0.7785878460475146</v>
+        <v>0.8001984684682196</v>
       </c>
       <c r="D98" t="n">
         <v>15</v>
       </c>
       <c r="E98" t="n">
-        <v>0.9519203310371926</v>
+        <v>1.008520265403603</v>
       </c>
     </row>
     <row r="99">
@@ -2117,13 +2117,13 @@
         <v>1.5</v>
       </c>
       <c r="C99" t="n">
-        <v>0.8170256914357071</v>
+        <v>0.8766441047510719</v>
       </c>
       <c r="D99" t="n">
         <v>45</v>
       </c>
       <c r="E99" t="n">
-        <v>0.9295714395719327</v>
+        <v>0.9751623617114984</v>
       </c>
     </row>
     <row r="100">
@@ -2134,13 +2134,13 @@
         <v>2.5</v>
       </c>
       <c r="C100" t="n">
-        <v>0.853357367649664</v>
+        <v>0.9274676471958547</v>
       </c>
       <c r="D100" t="n">
         <v>75</v>
       </c>
       <c r="E100" t="n">
-        <v>0.9190449916518452</v>
+        <v>0.9704696467409248</v>
       </c>
     </row>
     <row r="101">
@@ -2151,13 +2151,13 @@
         <v>3.5</v>
       </c>
       <c r="C101" t="n">
-        <v>0.887118372918408</v>
+        <v>0.9564223079045835</v>
       </c>
       <c r="D101" t="n">
         <v>105</v>
       </c>
       <c r="E101" t="n">
-        <v>0.9375917414955959</v>
+        <v>0.9753285085890729</v>
       </c>
     </row>
     <row r="102">
@@ -2168,13 +2168,13 @@
         <v>4.5</v>
       </c>
       <c r="C102" t="n">
-        <v>0.917844205470961</v>
+        <v>0.9672612989792713</v>
       </c>
       <c r="D102" t="n">
         <v>135</v>
       </c>
       <c r="E102" t="n">
-        <v>1.024812340625359</v>
+        <v>0.9835419019102439</v>
       </c>
     </row>
     <row r="103">
@@ -2185,13 +2185,13 @@
         <v>5.5</v>
       </c>
       <c r="C103" t="n">
-        <v>0.945070363536346</v>
+        <v>0.9637378325219328</v>
       </c>
       <c r="D103" t="n">
         <v>165</v>
       </c>
       <c r="E103" t="n">
-        <v>1.024001035885592</v>
+        <v>0.9938719107821756</v>
       </c>
     </row>
     <row r="104">
@@ -2202,13 +2202,13 @@
         <v>6.5</v>
       </c>
       <c r="C104" t="n">
-        <v>0.9683323453435858</v>
+        <v>0.9496051206345837</v>
       </c>
       <c r="D104" t="n">
         <v>195</v>
       </c>
       <c r="E104" t="n">
-        <v>1.020948847489012</v>
+        <v>0.9975002676589941</v>
       </c>
     </row>
     <row r="105">
@@ -2219,13 +2219,13 @@
         <v>7.5</v>
       </c>
       <c r="C105" t="n">
-        <v>0.9871656491217028</v>
+        <v>0.928616375419236</v>
       </c>
       <c r="D105" t="n">
         <v>225</v>
       </c>
       <c r="E105" t="n">
-        <v>1.024049670083839</v>
+        <v>1.012149450485065</v>
       </c>
     </row>
     <row r="106">
@@ -2236,13 +2236,13 @@
         <v>8.5</v>
       </c>
       <c r="C106" t="n">
-        <v>1.00110577309972</v>
+        <v>0.9045248089779057</v>
       </c>
       <c r="D106" t="n">
         <v>255</v>
       </c>
       <c r="E106" t="n">
-        <v>1.070721460789041</v>
+        <v>1.019493669858991</v>
       </c>
     </row>
     <row r="107">
@@ -2253,13 +2253,13 @@
         <v>9.5</v>
       </c>
       <c r="C107" t="n">
-        <v>1.009688215506659</v>
+        <v>0.8810836334126064</v>
       </c>
       <c r="D107" t="n">
         <v>285</v>
       </c>
       <c r="E107" t="n">
-        <v>1.10200601438586</v>
+        <v>1.04912637781486</v>
       </c>
     </row>
     <row r="108">
@@ -2270,13 +2270,13 @@
         <v>10.5</v>
       </c>
       <c r="C108" t="n">
-        <v>1.012448474571543</v>
+        <v>0.8620460608253531</v>
       </c>
       <c r="D108" t="n">
         <v>315</v>
       </c>
       <c r="E108" t="n">
-        <v>1.107858530901844</v>
+        <v>1.063073575074167</v>
       </c>
     </row>
     <row r="109">
@@ -2287,13 +2287,13 @@
         <v>11.5</v>
       </c>
       <c r="C109" t="n">
-        <v>1.008922048523396</v>
+        <v>0.8511653033181588</v>
       </c>
       <c r="D109" t="n">
         <v>345</v>
       </c>
       <c r="E109" t="n">
-        <v>1.108234138202473</v>
+        <v>1.090942483979519</v>
       </c>
     </row>
     <row r="110">
@@ -2304,13 +2304,13 @@
         <v>12.5</v>
       </c>
       <c r="C110" t="n">
-        <v>0.9986444355912381</v>
+        <v>0.852194572993039</v>
       </c>
       <c r="D110" t="n">
         <v>375</v>
       </c>
       <c r="E110" t="n">
-        <v>1.109889261751895</v>
+        <v>1.097274358002995</v>
       </c>
     </row>
     <row r="111">
@@ -2321,13 +2321,13 @@
         <v>13.5</v>
       </c>
       <c r="C111" t="n">
-        <v>0.981151134004093</v>
+        <v>0.8688870819520067</v>
       </c>
       <c r="D111" t="n">
         <v>405</v>
       </c>
       <c r="E111" t="n">
-        <v>1.112408028788716</v>
+        <v>1.09890584152382</v>
       </c>
     </row>
     <row r="112">
@@ -2338,13 +2338,13 @@
         <v>14.5</v>
       </c>
       <c r="C112" t="n">
-        <v>0.9559776419909838</v>
+        <v>0.9049960422970779</v>
       </c>
       <c r="D112" t="n">
         <v>435</v>
       </c>
       <c r="E112" t="n">
-        <v>1.120298377467482</v>
+        <v>1.095405003178514</v>
       </c>
     </row>
     <row r="113">
@@ -2355,13 +2355,13 @@
         <v>15.5</v>
       </c>
       <c r="C113" t="n">
-        <v>0.9226594577809326</v>
+        <v>0.9642746661302657</v>
       </c>
       <c r="D113" t="n">
         <v>465</v>
       </c>
       <c r="E113" t="n">
-        <v>1.140010471759096</v>
+        <v>1.097389177019776</v>
       </c>
     </row>
     <row r="114">
@@ -2372,13 +2372,13 @@
         <v>0.5</v>
       </c>
       <c r="C114" t="n">
-        <v>0.7235554479139438</v>
+        <v>0.7462495315584529</v>
       </c>
       <c r="D114" t="n">
         <v>10</v>
       </c>
       <c r="E114" t="n">
-        <v>0.9445591115328569</v>
+        <v>0.9873822541404415</v>
       </c>
     </row>
     <row r="115">
@@ -2389,13 +2389,13 @@
         <v>1.5</v>
       </c>
       <c r="C115" t="n">
-        <v>0.7420869660581072</v>
+        <v>0.8024975327440008</v>
       </c>
       <c r="D115" t="n">
         <v>30</v>
       </c>
       <c r="E115" t="n">
-        <v>0.9313597620478431</v>
+        <v>0.9484536170727481</v>
       </c>
     </row>
     <row r="116">
@@ -2406,13 +2406,13 @@
         <v>2.5</v>
       </c>
       <c r="C116" t="n">
-        <v>0.7600859304782477</v>
+        <v>0.8351050537629638</v>
       </c>
       <c r="D116" t="n">
         <v>50</v>
       </c>
       <c r="E116" t="n">
-        <v>0.8812074053776021</v>
+        <v>0.9620717560406414</v>
       </c>
     </row>
     <row r="117">
@@ -2423,13 +2423,13 @@
         <v>3.5</v>
       </c>
       <c r="C117" t="n">
-        <v>0.7770878394033893</v>
+        <v>0.8478253067173569</v>
       </c>
       <c r="D117" t="n">
         <v>70</v>
       </c>
       <c r="E117" t="n">
-        <v>0.9047621944654385</v>
+        <v>0.9682052475718699</v>
       </c>
     </row>
     <row r="118">
@@ -2440,13 +2440,13 @@
         <v>4.5</v>
       </c>
       <c r="C118" t="n">
-        <v>0.7926281910625534</v>
+        <v>0.844411503709193</v>
       </c>
       <c r="D118" t="n">
         <v>90</v>
       </c>
       <c r="E118" t="n">
-        <v>0.9211929057217436</v>
+        <v>0.9719894755834196</v>
       </c>
     </row>
     <row r="119">
@@ -2457,13 +2457,13 @@
         <v>5.5</v>
       </c>
       <c r="C119" t="n">
-        <v>0.8062424836847633</v>
+        <v>0.8286168568404875</v>
       </c>
       <c r="D119" t="n">
         <v>110</v>
       </c>
       <c r="E119" t="n">
-        <v>0.9269375939392431</v>
+        <v>0.9785319169796006</v>
       </c>
     </row>
     <row r="120">
@@ -2474,13 +2474,13 @@
         <v>6.5</v>
       </c>
       <c r="C120" t="n">
-        <v>0.8174662154990412</v>
+        <v>0.8041945782132541</v>
       </c>
       <c r="D120" t="n">
         <v>130</v>
       </c>
       <c r="E120" t="n">
-        <v>0.9873571020994789</v>
+        <v>0.9917903071885855</v>
       </c>
     </row>
     <row r="121">
@@ -2491,13 +2491,13 @@
         <v>7.5</v>
       </c>
       <c r="C121" t="n">
-        <v>0.82583488473441</v>
+        <v>0.7748978799295073</v>
       </c>
       <c r="D121" t="n">
         <v>150</v>
       </c>
       <c r="E121" t="n">
-        <v>1.017392508806612</v>
+        <v>0.9945743884988236</v>
       </c>
     </row>
     <row r="122">
@@ -2508,13 +2508,13 @@
         <v>8.5</v>
       </c>
       <c r="C122" t="n">
-        <v>0.8308839896198923</v>
+        <v>0.7444799740912618</v>
       </c>
       <c r="D122" t="n">
         <v>170</v>
       </c>
       <c r="E122" t="n">
-        <v>1.020115110333455</v>
+        <v>0.9981877254550454</v>
       </c>
     </row>
     <row r="123">
@@ -2525,13 +2525,13 @@
         <v>9.5</v>
       </c>
       <c r="C123" t="n">
-        <v>0.8321490283845103</v>
+        <v>0.7166940728005311</v>
       </c>
       <c r="D123" t="n">
         <v>190</v>
       </c>
       <c r="E123" t="n">
-        <v>1.019151901148474</v>
+        <v>0.9938900932767325</v>
       </c>
     </row>
     <row r="124">
@@ -2542,13 +2542,13 @@
         <v>10.5</v>
       </c>
       <c r="C124" t="n">
-        <v>0.8291654992572871</v>
+        <v>0.6952933881593301</v>
       </c>
       <c r="D124" t="n">
         <v>210</v>
       </c>
       <c r="E124" t="n">
-        <v>1.028175704014479</v>
+        <v>0.9812652633283387</v>
       </c>
     </row>
     <row r="125">
@@ -2559,13 +2559,13 @@
         <v>11.5</v>
       </c>
       <c r="C125" t="n">
-        <v>0.8214689004672453</v>
+        <v>0.6840311322696724</v>
       </c>
       <c r="D125" t="n">
         <v>230</v>
       </c>
       <c r="E125" t="n">
-        <v>1.027496529549531</v>
+        <v>0.9988150784520134</v>
       </c>
     </row>
     <row r="126">
@@ -2576,13 +2576,13 @@
         <v>12.5</v>
       </c>
       <c r="C126" t="n">
-        <v>0.8085947302434073</v>
+        <v>0.686660517233573</v>
       </c>
       <c r="D126" t="n">
         <v>250</v>
       </c>
       <c r="E126" t="n">
-        <v>1.075446889350946</v>
+        <v>1.00144065402525</v>
       </c>
     </row>
     <row r="127">
@@ -2593,13 +2593,13 @@
         <v>13.5</v>
       </c>
       <c r="C127" t="n">
-        <v>0.7900784868147959</v>
+        <v>0.7069347551530465</v>
       </c>
       <c r="D127" t="n">
         <v>270</v>
       </c>
       <c r="E127" t="n">
-        <v>1.075446889350946</v>
+        <v>1.031877666691172</v>
       </c>
     </row>
     <row r="128">
@@ -2610,13 +2610,13 @@
         <v>14.5</v>
       </c>
       <c r="C128" t="n">
-        <v>0.7654556684104332</v>
+        <v>0.7486070581301066</v>
       </c>
       <c r="D128" t="n">
         <v>290</v>
       </c>
       <c r="E128" t="n">
-        <v>1.113450802959879</v>
+        <v>1.033642540128124</v>
       </c>
     </row>
     <row r="129">
@@ -2627,13 +2627,13 @@
         <v>15.5</v>
       </c>
       <c r="C129" t="n">
-        <v>0.7342617732593422</v>
+        <v>0.8154306382667666</v>
       </c>
       <c r="D129" t="n">
         <v>310</v>
       </c>
       <c r="E129" t="n">
-        <v>1.113450802959879</v>
+        <v>1.052970703003262</v>
       </c>
     </row>
     <row r="130">
@@ -2644,13 +2644,13 @@
         <v>0.5</v>
       </c>
       <c r="C130" t="n">
-        <v>0.7794860548385347</v>
+        <v>0.7984181677086236</v>
       </c>
       <c r="D130" t="n">
         <v>5</v>
       </c>
       <c r="E130" t="n">
-        <v>0.9596120534116608</v>
+        <v>0.9672891246940865</v>
       </c>
     </row>
     <row r="131">
@@ -2661,13 +2661,13 @@
         <v>1.5</v>
       </c>
       <c r="C131" t="n">
-        <v>0.7767578846321647</v>
+        <v>0.8339145838489362</v>
       </c>
       <c r="D131" t="n">
         <v>15</v>
       </c>
       <c r="E131" t="n">
-        <v>0.9545263134174296</v>
+        <v>0.9793309966400318</v>
       </c>
     </row>
     <row r="132">
@@ -2678,13 +2678,13 @@
         <v>2.5</v>
       </c>
       <c r="C132" t="n">
-        <v>0.7750707761519866</v>
+        <v>0.8477521334941487</v>
       </c>
       <c r="D132" t="n">
         <v>25</v>
       </c>
       <c r="E132" t="n">
-        <v>0.8568614335886207</v>
+        <v>0.870692108120238</v>
       </c>
     </row>
     <row r="133">
@@ -2695,13 +2695,13 @@
         <v>3.5</v>
       </c>
       <c r="C133" t="n">
-        <v>0.7739602276270223</v>
+        <v>0.8436840287462737</v>
       </c>
       <c r="D133" t="n">
         <v>35</v>
       </c>
       <c r="E133" t="n">
-        <v>0.8525768963934397</v>
+        <v>0.8940581521155755</v>
       </c>
     </row>
     <row r="134">
@@ -2712,13 +2712,13 @@
         <v>4.5</v>
       </c>
       <c r="C134" t="n">
-        <v>0.7729617372862947</v>
+        <v>0.8254634817073274</v>
       </c>
       <c r="D134" t="n">
         <v>45</v>
       </c>
       <c r="E134" t="n">
-        <v>0.8522315231277889</v>
+        <v>0.9076078316481417</v>
       </c>
     </row>
     <row r="135">
@@ -2729,13 +2729,13 @@
         <v>5.5</v>
       </c>
       <c r="C135" t="n">
-        <v>0.7716108033588258</v>
+        <v>0.7968437044793227</v>
       </c>
       <c r="D135" t="n">
         <v>55</v>
       </c>
       <c r="E135" t="n">
-        <v>0.8734398795616281</v>
+        <v>0.9242954349755336</v>
       </c>
     </row>
     <row r="136">
@@ -2746,13 +2746,13 @@
         <v>6.5</v>
       </c>
       <c r="C136" t="n">
-        <v>0.769442924073639</v>
+        <v>0.7615779091642741</v>
       </c>
       <c r="D136" t="n">
         <v>65</v>
       </c>
       <c r="E136" t="n">
-        <v>0.8998789629522004</v>
+        <v>0.924154240735552</v>
       </c>
     </row>
     <row r="137">
@@ -2763,13 +2763,13 @@
         <v>7.5</v>
       </c>
       <c r="C137" t="n">
-        <v>0.7659935976597568</v>
+        <v>0.7234193078641967</v>
       </c>
       <c r="D137" t="n">
         <v>75</v>
       </c>
       <c r="E137" t="n">
-        <v>0.8984010015657239</v>
+        <v>0.9403305464742006</v>
       </c>
     </row>
     <row r="138">
@@ -2780,13 +2780,13 @@
         <v>8.5</v>
       </c>
       <c r="C138" t="n">
-        <v>0.7607983223462012</v>
+        <v>0.6861211126811038</v>
       </c>
       <c r="D138" t="n">
         <v>85</v>
       </c>
       <c r="E138" t="n">
-        <v>0.8971166409295418</v>
+        <v>0.9387611273952839</v>
       </c>
     </row>
     <row r="139">
@@ -2797,13 +2797,13 @@
         <v>9.5</v>
       </c>
       <c r="C139" t="n">
-        <v>0.753392596361995</v>
+        <v>0.6534365357170107</v>
       </c>
       <c r="D139" t="n">
         <v>95</v>
       </c>
       <c r="E139" t="n">
-        <v>0.9052414329049934</v>
+        <v>0.9377149035286879</v>
       </c>
     </row>
     <row r="140">
@@ -2814,13 +2814,13 @@
         <v>10.5</v>
       </c>
       <c r="C140" t="n">
-        <v>0.7433119179361615</v>
+        <v>0.6291187890739308</v>
       </c>
       <c r="D140" t="n">
         <v>105</v>
       </c>
       <c r="E140" t="n">
-        <v>0.8912955801291973</v>
+        <v>0.9183157092428718</v>
       </c>
     </row>
     <row r="141">
@@ -2831,13 +2831,13 @@
         <v>11.5</v>
       </c>
       <c r="C141" t="n">
-        <v>0.7300917852977227</v>
+        <v>0.6169210848538789</v>
       </c>
       <c r="D141" t="n">
         <v>115</v>
       </c>
       <c r="E141" t="n">
-        <v>0.9364506425587138</v>
+        <v>0.922815571021948</v>
       </c>
     </row>
     <row r="142">
@@ -2848,13 +2848,13 @@
         <v>12.5</v>
       </c>
       <c r="C142" t="n">
-        <v>0.713267696675701</v>
+        <v>0.6205966351588686</v>
       </c>
       <c r="D142" t="n">
         <v>125</v>
       </c>
       <c r="E142" t="n">
-        <v>0.9528865728634862</v>
+        <v>0.9138774237696647</v>
       </c>
     </row>
     <row r="143">
@@ -2865,13 +2865,13 @@
         <v>13.5</v>
       </c>
       <c r="C143" t="n">
-        <v>0.6923751502991191</v>
+        <v>0.6438986520909153</v>
       </c>
       <c r="D143" t="n">
         <v>135</v>
       </c>
       <c r="E143" t="n">
-        <v>0.9911443907801712</v>
+        <v>0.9141365404101367</v>
       </c>
     </row>
     <row r="144">
@@ -2882,13 +2882,13 @@
         <v>14.5</v>
       </c>
       <c r="C144" t="n">
-        <v>0.6669496443970004</v>
+        <v>0.6905803477520321</v>
       </c>
       <c r="D144" t="n">
         <v>145</v>
       </c>
       <c r="E144" t="n">
-        <v>0.9937454867162366</v>
+        <v>0.906515582907682</v>
       </c>
     </row>
     <row r="145">
@@ -2899,13 +2899,13 @@
         <v>15.5</v>
       </c>
       <c r="C145" t="n">
-        <v>0.6365266771983666</v>
+        <v>0.7643949342442351</v>
       </c>
       <c r="D145" t="n">
         <v>155</v>
       </c>
       <c r="E145" t="n">
-        <v>0.9974243563312445</v>
+        <v>0.9123231669068067</v>
       </c>
     </row>
     <row r="146">
@@ -2916,13 +2916,13 @@
         <v>0.5</v>
       </c>
       <c r="C146" t="n">
-        <v>0.9858708627075179</v>
+        <v>0.9948623137122045</v>
       </c>
       <c r="D146" t="n">
         <v>0</v>
       </c>
       <c r="E146" t="n">
-        <v>0.9596120534116608</v>
+        <v>0.9672891246940865</v>
       </c>
     </row>
     <row r="147">
@@ -2933,13 +2933,13 @@
         <v>1.5</v>
       </c>
       <c r="C147" t="n">
-        <v>0.9605296430441123</v>
+        <v>1.009053194859351</v>
       </c>
       <c r="D147" t="n">
         <v>0</v>
       </c>
       <c r="E147" t="n">
-        <v>0.9812616294658688</v>
+        <v>0.9787871743851018</v>
       </c>
     </row>
     <row r="148">
@@ -2950,13 +2950,13 @@
         <v>2.5</v>
       </c>
       <c r="C148" t="n">
-        <v>0.9378031005571119</v>
+        <v>1.00356682318288</v>
       </c>
       <c r="D148" t="n">
         <v>0</v>
       </c>
       <c r="E148" t="n">
-        <v>0.8572428827046016</v>
+        <v>0.8656159180964169</v>
       </c>
     </row>
     <row r="149">
@@ -2967,13 +2967,13 @@
         <v>3.5</v>
       </c>
       <c r="C149" t="n">
-        <v>0.9172267334755391</v>
+        <v>0.9821564107848075</v>
       </c>
       <c r="D149" t="n">
         <v>0</v>
       </c>
       <c r="E149" t="n">
-        <v>0.8393834913335397</v>
+        <v>0.8655472218763525</v>
       </c>
     </row>
     <row r="150">
@@ -2984,13 +2984,13 @@
         <v>4.5</v>
       </c>
       <c r="C150" t="n">
-        <v>0.8983360400284164</v>
+        <v>0.9485751697671467</v>
       </c>
       <c r="D150" t="n">
         <v>0</v>
       </c>
       <c r="E150" t="n">
-        <v>0.8390264051690708</v>
+        <v>0.8630178019805642</v>
       </c>
     </row>
     <row r="151">
@@ -3001,13 +3001,13 @@
         <v>5.5</v>
       </c>
       <c r="C151" t="n">
-        <v>0.8806665184447662</v>
+        <v>0.906576312231911</v>
       </c>
       <c r="D151" t="n">
         <v>0</v>
       </c>
       <c r="E151" t="n">
-        <v>0.8498454917309073</v>
+        <v>0.887121329478644</v>
       </c>
     </row>
     <row r="152">
@@ -3018,13 +3018,13 @@
         <v>6.5</v>
       </c>
       <c r="C152" t="n">
-        <v>0.8637536669536113</v>
+        <v>0.8599130502811168</v>
       </c>
       <c r="D152" t="n">
         <v>0</v>
       </c>
       <c r="E152" t="n">
-        <v>0.8726582224517511</v>
+        <v>0.8815069326530867</v>
       </c>
     </row>
     <row r="153">
@@ -3035,13 +3035,13 @@
         <v>7.5</v>
       </c>
       <c r="C153" t="n">
-        <v>0.8471329837839746</v>
+        <v>0.8123385960167769</v>
       </c>
       <c r="D153" t="n">
         <v>0</v>
       </c>
       <c r="E153" t="n">
-        <v>0.8716169104042226</v>
+        <v>0.8778279054313691</v>
       </c>
     </row>
     <row r="154">
@@ -3052,13 +3052,13 @@
         <v>8.5</v>
       </c>
       <c r="C154" t="n">
-        <v>0.8303399671648783</v>
+        <v>0.7676061615409064</v>
       </c>
       <c r="D154" t="n">
         <v>0</v>
       </c>
       <c r="E154" t="n">
-        <v>0.8661494018821334</v>
+        <v>0.8764688986919681</v>
       </c>
     </row>
     <row r="155">
@@ -3069,13 +3069,13 @@
         <v>9.5</v>
       </c>
       <c r="C155" t="n">
-        <v>0.8129101153253449</v>
+        <v>0.7294689589555181</v>
       </c>
       <c r="D155" t="n">
         <v>0</v>
       </c>
       <c r="E155" t="n">
-        <v>0.8661494018821334</v>
+        <v>0.8727424265293175</v>
       </c>
     </row>
     <row r="156">
@@ -3086,13 +3086,13 @@
         <v>10.5</v>
       </c>
       <c r="C156" t="n">
-        <v>0.7943789264943976</v>
+        <v>0.7016802003626285</v>
       </c>
       <c r="D156" t="n">
         <v>0</v>
       </c>
       <c r="E156" t="n">
-        <v>0.8424211986521011</v>
+        <v>0.8385688943512962</v>
       </c>
     </row>
     <row r="157">
@@ -3103,13 +3103,13 @@
         <v>11.5</v>
       </c>
       <c r="C157" t="n">
-        <v>0.7742818989010585</v>
+        <v>0.6879930978642503</v>
       </c>
       <c r="D157" t="n">
         <v>0</v>
       </c>
       <c r="E157" t="n">
-        <v>0.8424211986521011</v>
+        <v>0.8385688943512962</v>
       </c>
     </row>
     <row r="158">
@@ -3120,13 +3120,13 @@
         <v>12.5</v>
       </c>
       <c r="C158" t="n">
-        <v>0.7521545307743505</v>
+        <v>0.6921608635623987</v>
       </c>
       <c r="D158" t="n">
         <v>0</v>
       </c>
       <c r="E158" t="n">
-        <v>0.8447921160771706</v>
+        <v>0.8207265899867507</v>
       </c>
     </row>
     <row r="159">
@@ -3137,13 +3137,13 @@
         <v>13.5</v>
       </c>
       <c r="C159" t="n">
-        <v>0.7275323203432957</v>
+        <v>0.7179367095590867</v>
       </c>
       <c r="D159" t="n">
         <v>0</v>
       </c>
       <c r="E159" t="n">
-        <v>0.8447921160771706</v>
+        <v>0.8207265899867507</v>
       </c>
     </row>
     <row r="160">
@@ -3154,13 +3154,13 @@
         <v>14.5</v>
       </c>
       <c r="C160" t="n">
-        <v>0.6999507658369173</v>
+        <v>0.76907384795633</v>
       </c>
       <c r="D160" t="n">
         <v>0</v>
       </c>
       <c r="E160" t="n">
-        <v>0.8493518672992638</v>
+        <v>0.8080657267417628</v>
       </c>
     </row>
     <row r="161">
@@ -3171,13 +3171,13 @@
         <v>15.5</v>
       </c>
       <c r="C161" t="n">
-        <v>0.6689453654842374</v>
+        <v>0.8493254908561427</v>
       </c>
       <c r="D161" t="n">
         <v>0</v>
       </c>
       <c r="E161" t="n">
-        <v>0.8493518672992638</v>
+        <v>0.8080657267417628</v>
       </c>
     </row>
   </sheetData>
